--- a/biology/Médecine/Nanisme_dyssegmentaire/Nanisme_dyssegmentaire.xlsx
+++ b/biology/Médecine/Nanisme_dyssegmentaire/Nanisme_dyssegmentaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nanisme dyssegmentaire est un nanisme létal rare.
 Le terme de dyssegmentaire est en rapport avec l'aspect radiologique des vertébres qui sont de tailles et d'aspects inhabituelles (anisospondylie) sous forme de bloc osseux mal différencié.
@@ -515,7 +527,9 @@
           <t>Autres noms</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Dysplasie segmentaire
 Nanisme anisospondylique micromélique</t>
@@ -546,7 +560,9 @@
           <t>Étiologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Mutation du gène HSPG2 situé sur le locus p36.1 du chromosome 1 codant le perlecan pour le type Silverman-Handmaker
 Pour le type Rolland-Desbuquois, le gène en cause est inconnu.</t>
@@ -577,7 +593,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nouveau-né présente un thorax étroit et des articulations à mobilité réduite. Une division labiale est souvent présente. Une dysmorphie faciale est plus marquée dans le type Rolland-Desbuquois. Dans ce même type, les signes radiologiques sont plus caractéristiques et atteignent l'ensemble du squelette.
 </t>
@@ -608,7 +626,9 @@
           <t>Mode de transmission</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Transmission autosomique récessive
 </t>
@@ -639,10 +659,12 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(en) Online Mendelian Inheritance in Man, OMIM (TM). Johns Hopkins University, Baltimore, MD. MIM Number:224410 [1]
-(en) Online Mendelian Inheritance in Man, OMIM (TM). Johns Hopkins University, Baltimore, MD. MIM Number:224400  [2]
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(en) Online Mendelian Inheritance in Man, OMIM (TM). Johns Hopkins University, Baltimore, MD. MIM Number:224410 
+(en) Online Mendelian Inheritance in Man, OMIM (TM). Johns Hopkins University, Baltimore, MD. MIM Number:224400  
  Portail de la médecine                     </t>
         </is>
       </c>
